--- a/PharmacySales tables for BI.xlsx
+++ b/PharmacySales tables for BI.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pliki\Inne\PharmaProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pliki\Inne\PharmacySales\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total sales by month" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>January</t>
   </si>
@@ -129,13 +129,23 @@
   <si>
     <t>AvgRollingUnitsSold</t>
   </si>
+  <si>
+    <t>WeekdayNO</t>
+  </si>
+  <si>
+    <t>MonthNO</t>
+  </si>
+  <si>
+    <t>HourNO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -176,10 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dziesiętny" xfId="1" builtinId="3"/>
@@ -461,388 +472,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>747.23</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>689.64</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>666.45</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>6193.53</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>132</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1068.25</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>237.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>9602.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>824.62</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>765.79</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>764.88</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>5962.95</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>91</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1171</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>280.36</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>9769.6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>913.65</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>738.86</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>742.86</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>5567.5</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>116</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1225</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>592.34</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>9780.2000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>921.23</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>646.22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>673.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>4660.8900000000003</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>93</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1107</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>846.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>8855.94</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>901.39</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>678.82</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>691.14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>4287.9799999999996</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>113</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>980</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>930.55</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>8469.8799999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>848.66</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>642.22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>695.71</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>3745.51</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>106</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>783</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>798.64</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>7513.74</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>987.49</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>702.14</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>647.9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3661.59</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>89</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>550</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>624.73</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>7173.84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>1019.67</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>674.13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>646.75</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>3928.93</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>114</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>577</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>500.3</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>7346.78</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>900.88</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>714.57</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>617.35</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>5765.14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>94</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>832</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>463.2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>9293.14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>819.67</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>672.66</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>674.4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>7362.05</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>89</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1186</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>335.3</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>11050.08</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>802.18</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>571.21</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>629.04999999999995</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>4927.26</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>101</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>964</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>235.4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>8129.1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>768.4</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>622.44000000000005</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>580.41999999999996</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>6119.47</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>104</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1257</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>210.23</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>9557.9599999999991</v>
       </c>
     </row>
@@ -853,391 +903,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>124.54</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>114.94</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>111.07</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1032.26</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>22</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>178.04</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>39.58</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1600.43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>137.44</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>127.63</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>127.48</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>993.82</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>15.17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>195.17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>46.73</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1628.27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>152.28</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>123.14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>123.81</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>927.92</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>19.329999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>204.17</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>98.72</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>1630.03</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>153.54</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>107.7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>112.32</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>776.82</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>15.5</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>184.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>141.12</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>1475.99</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>150.22999999999999</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>113.14</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>115.19</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>714.66</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>18.829999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>163.33000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>155.09</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>1411.65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>141.44</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>107.04</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>115.95</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>624.25</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>17.670000000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>130.5</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>133.11000000000001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1252.29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>164.58</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>117.02</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>107.98</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>610.26</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>14.83</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>91.67</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>104.12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1195.6400000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>169.94</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>112.36</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>107.79</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>654.82000000000005</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>19</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>96.17</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>83.38</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1224.46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>150.15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>119.1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>102.89</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>960.86</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>15.67</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>138.66999999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>77.2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1548.86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>163.93</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>134.53</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>134.88</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>1472.41</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>17.8</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>237.2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>67.06</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>2210.02</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>160.44</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>114.24</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>125.81</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>985.45</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>20.2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>192.8</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>47.08</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>1625.82</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>153.68</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>124.49</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>116.08</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1223.8900000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>20.8</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>251.4</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>42.05</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1911.59</v>
       </c>
     </row>
@@ -1248,243 +1337,267 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1521.78</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1118.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1171.77</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>8799.01</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>185.46</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1791.46</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>871.52</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>15274.04</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1519.25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1069.31</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1272.97</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>8540.4699999999993</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>219.17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1629.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>918.12</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>14949.31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>1439.21</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>1110.25</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1131.43</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>8422.35</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>196.25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1635</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>799.85</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>14538.09</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>1369.3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1092.28</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1110.04</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>8478.6299999999992</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>154.13</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1595.63</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>788.96</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>14434.84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>1435.91</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>1117.78</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1167.45</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>8606.19</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>229.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1756.04</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>842.39</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>14925.76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>1724.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>1311.55</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1262.67</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>10107.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>164.75</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1629.67</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>986.46</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>17021.900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>1591.44</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>1384.94</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>1055.8900000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10051.25</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>100.71</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1571.83</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>900.51</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>16555.86</v>
       </c>
     </row>
@@ -1495,247 +1608,271 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>5.0599999999999996</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>3.72</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>3.89</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>29.23</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0.62</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>5.95</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>2.9</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>50.74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>5.05</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>3.55</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>28.37</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.73</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>5.41</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>3.05</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>49.67</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>4.8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>3.7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>3.77</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>28.07</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.65</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>5.45</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2.67</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>48.46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>4.55</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>3.63</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>3.69</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>28.17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0.51</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>5.3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>2.62</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>47.96</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>4.7699999999999996</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>3.71</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>3.88</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>28.59</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0.76</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>5.83</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2.8</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>49.59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>5.73</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>4.3600000000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>4.1900000000000004</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>33.58</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>5.41</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>3.28</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>56.55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>5.29</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>3.51</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>33.39</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>0.33</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>5.22</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>2.99</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>55</v>
       </c>
     </row>
@@ -1746,51 +1883,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2">
@@ -1817,13 +1960,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1849,13 +1995,16 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1881,13 +2030,16 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>0.125</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1913,13 +2065,16 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1945,13 +2100,16 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1977,13 +2135,16 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>0.25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2009,535 +2170,586 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C9">
         <v>28.18</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>38.36</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>338.72</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>59</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17.3</v>
-      </c>
-      <c r="I9">
-        <v>506.57</v>
       </c>
       <c r="J9">
         <v>506.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>506.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C10">
         <v>561.25</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>325.2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>432.77</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2707.83</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>659.42</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>275.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4961.96</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5468.53</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C11">
         <v>742.21</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>447.92</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>692.81</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3584.15</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>65</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>746.73</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>372.34</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6586.17</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12054.69</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C12">
         <v>867.34</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>544.33000000000004</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>838.27</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4115.33</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>88.67</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>826.58</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>468.55</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7660.4</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>19715.09</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C13">
         <v>966.27</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>662.72</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>855.8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4851.87</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>94.67</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>811.77</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>486.22</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8634.65</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>28349.74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
         <v>942.94</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>647.97</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>725.34</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5006.1099999999997</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>124.79</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>702.53</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>494.56</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8519.4500000000007</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>36869.199999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C15">
         <v>799.47</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>552.6</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>678.5</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4428.1099999999997</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>130.08000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>768.35</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>474.01</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7701.05</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>44570.25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C16">
         <v>857.76</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>575.78</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>530.98</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4214.32</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>100.04</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>735.29</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>403.1</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>7317.23</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>51887.48</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C17">
         <v>652.57000000000005</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>500.49</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>466.15</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4252.3900000000003</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>111.79</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>649.58000000000004</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>374.03</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6895.22</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>58782.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C18">
         <v>578.55999999999995</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>525.76</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>410.85</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4222.55</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>93.67</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>608.54</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>319.5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6665.76</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>65448.45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C19">
         <v>619.19000000000005</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>592.13</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>462.85</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4318.8900000000003</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>84.42</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>800.17</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>346.23</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7139.46</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>72587.91</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C20">
         <v>738.54</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>671.14</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>620.26</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>5164.47</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>99.67</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1108.29</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>512.44000000000005</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>8815.14</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>81403.05</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C21">
         <v>886.77</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>807.15</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>588.63</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>5964.62</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>83.25</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1237.58</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>572.80999999999995</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>10057.57</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>91460.62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C22">
         <v>813.41</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>840.4</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>549.96</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>6059.02</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>89.25</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1231.31</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>605.07000000000005</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>10099.17</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>101559.79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
+        <v>0.875000000000001</v>
+      </c>
+      <c r="C23">
         <v>537.73</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>461.52</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>287.13</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>3678.57</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>31.67</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>647.16999999999996</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>382.23</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5994.35</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>107554.14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C24">
         <v>8.75</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>11.14</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6.75</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>98.44</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>16.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.92</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>145.5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>107699.64</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" s="3">
+        <v>0.95833333333333404</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>0.17</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -2548,9 +2760,12 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>0.17</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>107699.81</v>
       </c>
     </row>
@@ -2561,51 +2776,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:J25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2">
@@ -2632,13 +2853,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="3">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2664,13 +2888,16 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="3">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2696,13 +2923,16 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="3">
+        <v>0.125</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2728,13 +2958,16 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="3">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2760,13 +2993,16 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="3">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2792,13 +3028,16 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="3">
+        <v>0.25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2824,525 +3063,576 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C9">
         <v>0.01</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.02</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.01</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.16</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.03</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.01</v>
-      </c>
-      <c r="I9">
-        <v>0.24</v>
       </c>
       <c r="J9">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C10">
         <v>0.27</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.15</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.21</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.29</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.02</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.31</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.13</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.36</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C11">
         <v>0.35</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.21</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.33</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.03</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.35</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.18</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.13</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5.73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C12">
         <v>0.41</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.26</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.4</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.95</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.04</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.39</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.22</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.64</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C13">
         <v>0.46</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.31</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.41</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.04</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.39</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.23</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>13.47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
         <v>0.45</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.31</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.34</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.38</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.06</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.33</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.23</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4.05</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>17.52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C15">
         <v>0.38</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.26</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.32</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.06</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.36</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.23</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.66</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>21.18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="C16">
         <v>0.41</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.27</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.25</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.05</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.35</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.19</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.47</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>24.65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="C17">
         <v>0.31</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.24</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.22</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.02</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.05</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.31</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.18</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.27</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>27.92</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C18">
         <v>0.27</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.25</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.04</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.15</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.17</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>31.09</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="C19">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.22</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.04</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.38</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.16</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.39</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>34.479999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="C20">
         <v>0.35</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.32</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.05</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.53</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.24</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>38.67</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C21">
         <v>0.42</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.38</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.83</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.04</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.59</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.27</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4.78</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>43.45</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="C22">
         <v>0.39</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.26</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.88</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.04</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4.8</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>48.25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
+        <v>0.875000000000001</v>
+      </c>
+      <c r="C23">
         <v>0.26</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.22</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1.75</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.02</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.31</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.18</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2.85</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>51.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" s="3">
+        <v>0.91666666666666696</v>
       </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>0.01</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0.05</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>0.01</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>51.17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" s="3">
+        <v>0.95833333333333404</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3366,6 +3656,9 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>51.17</v>
       </c>
     </row>
